--- a/Lab-Scale-Group65/Rå-Målinger.kinda-trash.xlsx
+++ b/Lab-Scale-Group65/Rå-Målinger.kinda-trash.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor\Documents\GitHub\GFV\Lab-Scale-Group65\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\OneDrive - Aarhus universitet\3. semester\GFV\GFV - LAB\Lab-Scale-Group65\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB5BC6B5-87C2-4379-8580-4DCC1B43540A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{EB5BC6B5-87C2-4379-8580-4DCC1B43540A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{C7A20979-2055-4076-B426-57D86959DC68}"/>
   <bookViews>
-    <workbookView xWindow="-4140" yWindow="5475" windowWidth="8475" windowHeight="4275" activeTab="3" xr2:uid="{4581D2D8-8E95-4720-8671-B7B6BA209B26}"/>
+    <workbookView xWindow="0" yWindow="3570" windowWidth="28770" windowHeight="15600" xr2:uid="{4581D2D8-8E95-4720-8671-B7B6BA209B26}"/>
   </bookViews>
   <sheets>
     <sheet name="Indledende" sheetId="1" r:id="rId1"/>
@@ -465,7 +465,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -527,7 +527,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -580,8 +580,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.35923755912984412"/>
-                  <c:y val="0.21262028113171066"/>
+                  <c:x val="0.26841776629580494"/>
+                  <c:y val="0.11453771005970972"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -609,7 +609,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="LID4096"/>
+                  <a:endParaRPr lang="da-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -659,7 +659,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="LID4096"/>
+                  <a:endParaRPr lang="da-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -958,7 +958,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="592311200"/>
@@ -1015,7 +1015,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="592315136"/>
@@ -1057,7 +1057,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1094,7 +1094,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="LID4096"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1703,7 +1703,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2001,8 +2001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420FC2B5-1126-42BE-85AE-0DF4ACA84898}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <f>HEX2DEC(C2)</f>
+        <f t="shared" ref="B2:B37" si="0">HEX2DEC(C2)</f>
         <v>1091</v>
       </c>
       <c r="C2" s="1">
@@ -2035,7 +2035,7 @@
         <v>151</v>
       </c>
       <c r="B3" s="2">
-        <f>HEX2DEC(C3)</f>
+        <f t="shared" si="0"/>
         <v>1119</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2047,7 +2047,7 @@
         <v>302</v>
       </c>
       <c r="B4" s="2">
-        <f>HEX2DEC(C4)</f>
+        <f t="shared" si="0"/>
         <v>1155</v>
       </c>
       <c r="C4" s="1">
@@ -2059,7 +2059,7 @@
         <v>453</v>
       </c>
       <c r="B5" s="2">
-        <f>HEX2DEC(C5)</f>
+        <f t="shared" si="0"/>
         <v>1189</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2071,7 +2071,7 @@
         <v>604</v>
       </c>
       <c r="B6" s="2">
-        <f>HEX2DEC(C6)</f>
+        <f t="shared" si="0"/>
         <v>1222</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2083,7 +2083,7 @@
         <v>755</v>
       </c>
       <c r="B7" s="2">
-        <f>HEX2DEC(C7)</f>
+        <f t="shared" si="0"/>
         <v>1252</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2095,7 +2095,7 @@
         <v>1000</v>
       </c>
       <c r="B8" s="2">
-        <f>HEX2DEC(C8)</f>
+        <f t="shared" si="0"/>
         <v>1297</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2107,7 +2107,7 @@
         <v>1151</v>
       </c>
       <c r="B9" s="2">
-        <f>HEX2DEC(C9)</f>
+        <f t="shared" si="0"/>
         <v>1325</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -2119,7 +2119,7 @@
         <v>1302</v>
       </c>
       <c r="B10" s="2">
-        <f>HEX2DEC(C10)</f>
+        <f t="shared" si="0"/>
         <v>1356</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2131,7 +2131,7 @@
         <v>1453</v>
       </c>
       <c r="B11" s="2">
-        <f>HEX2DEC(C11)</f>
+        <f t="shared" si="0"/>
         <v>1383</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2143,7 +2143,7 @@
         <v>1604</v>
       </c>
       <c r="B12" s="2">
-        <f>HEX2DEC(C12)</f>
+        <f t="shared" si="0"/>
         <v>1408</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2155,7 +2155,7 @@
         <v>1755</v>
       </c>
       <c r="B13" s="2">
-        <f>HEX2DEC(C13)</f>
+        <f t="shared" si="0"/>
         <v>1469</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2167,7 +2167,7 @@
         <v>2000</v>
       </c>
       <c r="B14" s="2">
-        <f>HEX2DEC(C14)</f>
+        <f t="shared" si="0"/>
         <v>1510</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -2179,7 +2179,7 @@
         <v>2151</v>
       </c>
       <c r="B15" s="2">
-        <f>HEX2DEC(C15)</f>
+        <f t="shared" si="0"/>
         <v>1539</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2191,7 +2191,7 @@
         <v>2302</v>
       </c>
       <c r="B16" s="2">
-        <f>HEX2DEC(C16)</f>
+        <f t="shared" si="0"/>
         <v>1571</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -2203,7 +2203,7 @@
         <v>2453</v>
       </c>
       <c r="B17" s="2">
-        <f>HEX2DEC(C17)</f>
+        <f t="shared" si="0"/>
         <v>1594</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -2215,7 +2215,7 @@
         <v>2604</v>
       </c>
       <c r="B18" s="2">
-        <f>HEX2DEC(C18)</f>
+        <f t="shared" si="0"/>
         <v>1630</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2227,7 +2227,7 @@
         <v>2755</v>
       </c>
       <c r="B19" s="2">
-        <f>HEX2DEC(C19)</f>
+        <f t="shared" si="0"/>
         <v>1657</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2239,7 +2239,7 @@
         <v>3000</v>
       </c>
       <c r="B20" s="2">
-        <f>HEX2DEC(C20)</f>
+        <f t="shared" si="0"/>
         <v>1718</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -2251,7 +2251,7 @@
         <v>3151</v>
       </c>
       <c r="B21" s="2">
-        <f>HEX2DEC(C21)</f>
+        <f t="shared" si="0"/>
         <v>1753</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -2263,7 +2263,7 @@
         <v>3302</v>
       </c>
       <c r="B22" s="2">
-        <f>HEX2DEC(C22)</f>
+        <f t="shared" si="0"/>
         <v>1777</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -2275,7 +2275,7 @@
         <v>3453</v>
       </c>
       <c r="B23" s="2">
-        <f>HEX2DEC(C23)</f>
+        <f t="shared" si="0"/>
         <v>1811</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -2287,7 +2287,7 @@
         <v>3604</v>
       </c>
       <c r="B24" s="2">
-        <f>HEX2DEC(C24)</f>
+        <f t="shared" si="0"/>
         <v>1842</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -2299,7 +2299,7 @@
         <v>3755</v>
       </c>
       <c r="B25" s="2">
-        <f>HEX2DEC(C25)</f>
+        <f t="shared" si="0"/>
         <v>1873</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -2311,7 +2311,7 @@
         <v>4000</v>
       </c>
       <c r="B26" s="2">
-        <f>HEX2DEC(C26)</f>
+        <f t="shared" si="0"/>
         <v>1929</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -2323,7 +2323,7 @@
         <v>4151</v>
       </c>
       <c r="B27" s="2">
-        <f>HEX2DEC(C27)</f>
+        <f t="shared" si="0"/>
         <v>1959</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -2335,7 +2335,7 @@
         <v>4302</v>
       </c>
       <c r="B28" s="2">
-        <f>HEX2DEC(C28)</f>
+        <f t="shared" si="0"/>
         <v>1996</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -2347,7 +2347,7 @@
         <v>4453</v>
       </c>
       <c r="B29" s="2">
-        <f>HEX2DEC(C29)</f>
+        <f t="shared" si="0"/>
         <v>2025</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -2359,7 +2359,7 @@
         <v>4604</v>
       </c>
       <c r="B30" s="2">
-        <f>HEX2DEC(C30)</f>
+        <f t="shared" si="0"/>
         <v>2057</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -2371,7 +2371,7 @@
         <v>4755</v>
       </c>
       <c r="B31" s="2">
-        <f>HEX2DEC(C31)</f>
+        <f t="shared" si="0"/>
         <v>2094</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -2383,7 +2383,7 @@
         <v>5000</v>
       </c>
       <c r="B32" s="2">
-        <f>HEX2DEC(C32)</f>
+        <f t="shared" si="0"/>
         <v>2141</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2395,7 +2395,7 @@
         <v>5151</v>
       </c>
       <c r="B33" s="2">
-        <f>HEX2DEC(C33)</f>
+        <f t="shared" si="0"/>
         <v>2156</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -2407,7 +2407,7 @@
         <v>5302</v>
       </c>
       <c r="B34" s="2">
-        <f>HEX2DEC(C34)</f>
+        <f t="shared" si="0"/>
         <v>2167</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -2419,7 +2419,7 @@
         <v>5453</v>
       </c>
       <c r="B35" s="2">
-        <f>HEX2DEC(C35)</f>
+        <f t="shared" si="0"/>
         <v>2177</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -2431,7 +2431,7 @@
         <v>5604</v>
       </c>
       <c r="B36" s="2">
-        <f>HEX2DEC(C36)</f>
+        <f t="shared" si="0"/>
         <v>2184</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -2443,7 +2443,7 @@
         <v>5755</v>
       </c>
       <c r="B37" s="2">
-        <f>HEX2DEC(C37)</f>
+        <f t="shared" si="0"/>
         <v>2188</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2882,7 +2882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E825DFF-AAE1-488E-AA51-4A5BEB3E0EDF}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>

--- a/Lab-Scale-Group65/Rå-Målinger.kinda-trash.xlsx
+++ b/Lab-Scale-Group65/Rå-Målinger.kinda-trash.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor\Documents\GitHub\GFV\Lab-Scale-Group65\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB5BC6B5-87C2-4379-8580-4DCC1B43540A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87788AD-70F3-45D3-97B1-E4073B4DED53}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4140" yWindow="5475" windowWidth="8475" windowHeight="4275" activeTab="3" xr2:uid="{4581D2D8-8E95-4720-8671-B7B6BA209B26}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4581D2D8-8E95-4720-8671-B7B6BA209B26}"/>
   </bookViews>
   <sheets>
     <sheet name="Indledende" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
   <si>
     <t>vægt</t>
   </si>
@@ -159,105 +159,6 @@
     <t>Måling 3</t>
   </si>
   <si>
-    <t>-26.06</t>
-  </si>
-  <si>
-    <t>-16.19</t>
-  </si>
-  <si>
-    <t>-21.12</t>
-  </si>
-  <si>
-    <t>491.70</t>
-  </si>
-  <si>
-    <t>481.83</t>
-  </si>
-  <si>
-    <t>486.769</t>
-  </si>
-  <si>
-    <t>1024.25</t>
-  </si>
-  <si>
-    <t>1014.39</t>
-  </si>
-  <si>
-    <t>1517.35</t>
-  </si>
-  <si>
-    <t>1507.49</t>
-  </si>
-  <si>
-    <t>1512.42</t>
-  </si>
-  <si>
-    <t>1990.72</t>
-  </si>
-  <si>
-    <t>1985.79</t>
-  </si>
-  <si>
-    <t>1980.86</t>
-  </si>
-  <si>
-    <t>2508.48</t>
-  </si>
-  <si>
-    <t>2518.34</t>
-  </si>
-  <si>
-    <t>2498.62</t>
-  </si>
-  <si>
-    <t>2996.65</t>
-  </si>
-  <si>
-    <t>3006,51</t>
-  </si>
-  <si>
-    <t>3509.47</t>
-  </si>
-  <si>
-    <t>3504.54</t>
-  </si>
-  <si>
-    <t>4032.16</t>
-  </si>
-  <si>
-    <t>3997.64</t>
-  </si>
-  <si>
-    <t>4027.23</t>
-  </si>
-  <si>
-    <t>4564.71</t>
-  </si>
-  <si>
-    <t>4554.84</t>
-  </si>
-  <si>
-    <t>4530.19</t>
-  </si>
-  <si>
-    <t>5062.74</t>
-  </si>
-  <si>
-    <t>5028.22</t>
-  </si>
-  <si>
-    <t>5052.88</t>
-  </si>
-  <si>
-    <t>5279.70</t>
-  </si>
-  <si>
-    <t>5284.63</t>
-  </si>
-  <si>
-    <t>5289.56</t>
-  </si>
-  <si>
     <t xml:space="preserve">vægt </t>
   </si>
   <si>
@@ -291,121 +192,43 @@
     <t>måling 10</t>
   </si>
   <si>
-    <t>1975.93</t>
+    <t>Liniær</t>
   </si>
   <si>
-    <t>1971.00</t>
+    <t>Højeste</t>
   </si>
   <si>
-    <t>1966.07</t>
+    <t>Gennemsnit</t>
   </si>
   <si>
-    <t>984.80</t>
+    <t>Laveste</t>
   </si>
   <si>
-    <t>989.73</t>
+    <t>diff fra gns høj</t>
   </si>
   <si>
-    <t>994.66</t>
+    <t>diff fra gns lav</t>
   </si>
   <si>
-    <t>999.59</t>
+    <t>Spænd</t>
   </si>
   <si>
-    <t>970.01</t>
+    <t>Spænd i procent</t>
   </si>
   <si>
-    <t>3100.20</t>
+    <t>Fra "Liniaritet"</t>
   </si>
   <si>
-    <t>3095.27</t>
+    <t xml:space="preserve">Måling 1 </t>
   </si>
   <si>
-    <t>3105.13</t>
+    <t>Gns</t>
   </si>
   <si>
-    <t>3114.99</t>
+    <t>Udregnet Zero-drift</t>
   </si>
   <si>
-    <t>4189.95</t>
-  </si>
-  <si>
-    <t>4194.88</t>
-  </si>
-  <si>
-    <t>4140.64</t>
-  </si>
-  <si>
-    <t>4185.02</t>
-  </si>
-  <si>
-    <t>4244.19</t>
-  </si>
-  <si>
-    <t>4170.23</t>
-  </si>
-  <si>
-    <t>4175.16</t>
-  </si>
-  <si>
-    <t>5205.74</t>
-  </si>
-  <si>
-    <t>5181.08</t>
-  </si>
-  <si>
-    <t>5200.81</t>
-  </si>
-  <si>
-    <t>5171.22</t>
-  </si>
-  <si>
-    <t>5186.01</t>
-  </si>
-  <si>
-    <t>5195.87</t>
-  </si>
-  <si>
-    <t>5190.94</t>
-  </si>
-  <si>
-    <t>-60.57</t>
-  </si>
-  <si>
-    <t>-80.30</t>
-  </si>
-  <si>
-    <t>-55.64</t>
-  </si>
-  <si>
-    <t>960.15</t>
-  </si>
-  <si>
-    <t>2035.10</t>
-  </si>
-  <si>
-    <t>2015.38</t>
-  </si>
-  <si>
-    <t>2040.03</t>
-  </si>
-  <si>
-    <t>3060.75</t>
-  </si>
-  <si>
-    <t>3065.68</t>
-  </si>
-  <si>
-    <t>4135.71</t>
-  </si>
-  <si>
-    <t>4115.99</t>
-  </si>
-  <si>
-    <t>5131.77</t>
-  </si>
-  <si>
-    <t>5136.70</t>
+    <t>ZD i proc</t>
   </si>
 </sst>
 </file>
@@ -441,10 +264,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,8 +405,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.35923755912984412"/>
-                  <c:y val="0.21262028113171066"/>
+                  <c:x val="-0.47487518054680239"/>
+                  <c:y val="-0.12325419928360554"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -630,8 +455,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.32279959734078162"/>
-                  <c:y val="0.51637890648583828"/>
+                  <c:x val="-0.48795547452236326"/>
+                  <c:y val="3.2139164247224107E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1105,7 +930,2301 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK"/>
+              <a:t>Liniaritet</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Liniaritet!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Måling 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Liniaritet!$A$3:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1486</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2486</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3486</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4486</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5486</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Liniaritet!$B$3:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-26.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>491.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1014.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1517.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2508.48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2996.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3509.47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4032.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4564.71</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5062.74</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5279.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-46FE-43B1-A0EA-91083BE0E8AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Liniaritet!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Måling 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Liniaritet!$A$3:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1486</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2486</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3486</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4486</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5486</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Liniaritet!$C$3:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-21.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>481.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1507.49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1985.79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2518.34</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>3006.51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3504.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3997.64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4554.84</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5028.22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5284.63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-46FE-43B1-A0EA-91083BE0E8AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Liniaritet!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Måling 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Liniaritet!$A$3:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1486</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2486</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3486</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4486</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5486</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Liniaritet!$D$3:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-16.190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>486.76900000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1014.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1512.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1980.86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2498.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2996.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3504.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4027.23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4530.1899999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5052.88</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5289.56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-46FE-43B1-A0EA-91083BE0E8AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Liniaritet!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Liniær</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Liniaritet!$E$3:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1486</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2486</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3486</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4486</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5486</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Liniaritet!$E$3:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1486</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2486</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3486</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4486</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5486</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-46FE-43B1-A0EA-91083BE0E8AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="783261584"/>
+        <c:axId val="783260272"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="783261584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="783260272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="783260272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="783261584"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK"/>
+              <a:t>Præcision</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Præcision!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spænd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Præcision!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Præcision!$S$2:$S$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>29.580000000000041</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.720000000000027</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.7199999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>103.54999999999927</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.519999999999527</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-89F8-4F80-B207-5D4F3A865919}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="684562768"/>
+        <c:axId val="783285208"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Præcision!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spænd i procent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Præcision!$T$2:$T$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.9580000000000042</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98600000000000132</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65733333333332666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5887499999999819</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69039999999999047</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-89F8-4F80-B207-5D4F3A865919}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="680668720"/>
+        <c:axId val="680669704"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="684562768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Vægt i gram</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="783285208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="783285208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Spænd</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> fra højeste til laveste i gram</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="684562768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="680669704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Spænd i procent af</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> vægt</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="680668720"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="680668720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="680669704"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cirka 30 min efter '!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Udregnet Zero-drift</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4472C4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Cirka 30 min efter '!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cirka 30 min efter '!$L$2:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-44.379999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-39.449999999999818</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.380000000000109</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.456666666666933</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>103.55333333333374</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85.466666666667152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8377-4393-AD53-47C38F0984D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="783258632"/>
+        <c:axId val="783258304"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="783258632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="783258304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="783258304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="783258632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cirka 30 min efter '!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ZD i proc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4472C4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Cirka 30 min efter '!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cirka 30 min efter '!$M$2:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>210.09941612750512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.876476811560956</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2348788139732858</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0819328408044258</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5765880983957179</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6930976555484041</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BDA7-483A-8F7B-EA312A8B4860}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="783258632"/>
+        <c:axId val="783258304"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="783258632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="783258304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="783258304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="783258632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1661,18 +3780,2043 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>19049</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>447674</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -1694,6 +5838,167 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>138111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagram 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{834B1D2F-B6A5-46D0-AD08-6C5981338242}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2233967A-1533-4BA4-BC46-9B48B2EA6C72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>252411</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7BCF0D8-CCA5-44FA-9145-C5DD5F5A15E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57D2ACEE-2108-4397-8E36-1228BE8CAA4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2001,8 +6306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420FC2B5-1126-42BE-85AE-0DF4ACA84898}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2023,7 +6328,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <f>HEX2DEC(C2)</f>
+        <f t="shared" ref="B2:B37" si="0">HEX2DEC(C2)</f>
         <v>1091</v>
       </c>
       <c r="C2" s="1">
@@ -2035,7 +6340,7 @@
         <v>151</v>
       </c>
       <c r="B3" s="2">
-        <f>HEX2DEC(C3)</f>
+        <f t="shared" si="0"/>
         <v>1119</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2047,7 +6352,7 @@
         <v>302</v>
       </c>
       <c r="B4" s="2">
-        <f>HEX2DEC(C4)</f>
+        <f t="shared" si="0"/>
         <v>1155</v>
       </c>
       <c r="C4" s="1">
@@ -2059,7 +6364,7 @@
         <v>453</v>
       </c>
       <c r="B5" s="2">
-        <f>HEX2DEC(C5)</f>
+        <f t="shared" si="0"/>
         <v>1189</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2071,7 +6376,7 @@
         <v>604</v>
       </c>
       <c r="B6" s="2">
-        <f>HEX2DEC(C6)</f>
+        <f t="shared" si="0"/>
         <v>1222</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2083,7 +6388,7 @@
         <v>755</v>
       </c>
       <c r="B7" s="2">
-        <f>HEX2DEC(C7)</f>
+        <f t="shared" si="0"/>
         <v>1252</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2095,7 +6400,7 @@
         <v>1000</v>
       </c>
       <c r="B8" s="2">
-        <f>HEX2DEC(C8)</f>
+        <f t="shared" si="0"/>
         <v>1297</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2107,7 +6412,7 @@
         <v>1151</v>
       </c>
       <c r="B9" s="2">
-        <f>HEX2DEC(C9)</f>
+        <f t="shared" si="0"/>
         <v>1325</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -2119,7 +6424,7 @@
         <v>1302</v>
       </c>
       <c r="B10" s="2">
-        <f>HEX2DEC(C10)</f>
+        <f t="shared" si="0"/>
         <v>1356</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2131,7 +6436,7 @@
         <v>1453</v>
       </c>
       <c r="B11" s="2">
-        <f>HEX2DEC(C11)</f>
+        <f t="shared" si="0"/>
         <v>1383</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2143,7 +6448,7 @@
         <v>1604</v>
       </c>
       <c r="B12" s="2">
-        <f>HEX2DEC(C12)</f>
+        <f t="shared" si="0"/>
         <v>1408</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2155,7 +6460,7 @@
         <v>1755</v>
       </c>
       <c r="B13" s="2">
-        <f>HEX2DEC(C13)</f>
+        <f t="shared" si="0"/>
         <v>1469</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2167,7 +6472,7 @@
         <v>2000</v>
       </c>
       <c r="B14" s="2">
-        <f>HEX2DEC(C14)</f>
+        <f t="shared" si="0"/>
         <v>1510</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -2179,7 +6484,7 @@
         <v>2151</v>
       </c>
       <c r="B15" s="2">
-        <f>HEX2DEC(C15)</f>
+        <f t="shared" si="0"/>
         <v>1539</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2191,7 +6496,7 @@
         <v>2302</v>
       </c>
       <c r="B16" s="2">
-        <f>HEX2DEC(C16)</f>
+        <f t="shared" si="0"/>
         <v>1571</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -2203,7 +6508,7 @@
         <v>2453</v>
       </c>
       <c r="B17" s="2">
-        <f>HEX2DEC(C17)</f>
+        <f t="shared" si="0"/>
         <v>1594</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -2215,7 +6520,7 @@
         <v>2604</v>
       </c>
       <c r="B18" s="2">
-        <f>HEX2DEC(C18)</f>
+        <f t="shared" si="0"/>
         <v>1630</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2227,7 +6532,7 @@
         <v>2755</v>
       </c>
       <c r="B19" s="2">
-        <f>HEX2DEC(C19)</f>
+        <f t="shared" si="0"/>
         <v>1657</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2239,7 +6544,7 @@
         <v>3000</v>
       </c>
       <c r="B20" s="2">
-        <f>HEX2DEC(C20)</f>
+        <f t="shared" si="0"/>
         <v>1718</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -2251,7 +6556,7 @@
         <v>3151</v>
       </c>
       <c r="B21" s="2">
-        <f>HEX2DEC(C21)</f>
+        <f t="shared" si="0"/>
         <v>1753</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -2263,7 +6568,7 @@
         <v>3302</v>
       </c>
       <c r="B22" s="2">
-        <f>HEX2DEC(C22)</f>
+        <f t="shared" si="0"/>
         <v>1777</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -2275,7 +6580,7 @@
         <v>3453</v>
       </c>
       <c r="B23" s="2">
-        <f>HEX2DEC(C23)</f>
+        <f t="shared" si="0"/>
         <v>1811</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -2287,7 +6592,7 @@
         <v>3604</v>
       </c>
       <c r="B24" s="2">
-        <f>HEX2DEC(C24)</f>
+        <f t="shared" si="0"/>
         <v>1842</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -2299,7 +6604,7 @@
         <v>3755</v>
       </c>
       <c r="B25" s="2">
-        <f>HEX2DEC(C25)</f>
+        <f t="shared" si="0"/>
         <v>1873</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -2311,7 +6616,7 @@
         <v>4000</v>
       </c>
       <c r="B26" s="2">
-        <f>HEX2DEC(C26)</f>
+        <f t="shared" si="0"/>
         <v>1929</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -2323,7 +6628,7 @@
         <v>4151</v>
       </c>
       <c r="B27" s="2">
-        <f>HEX2DEC(C27)</f>
+        <f t="shared" si="0"/>
         <v>1959</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -2335,7 +6640,7 @@
         <v>4302</v>
       </c>
       <c r="B28" s="2">
-        <f>HEX2DEC(C28)</f>
+        <f t="shared" si="0"/>
         <v>1996</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -2347,7 +6652,7 @@
         <v>4453</v>
       </c>
       <c r="B29" s="2">
-        <f>HEX2DEC(C29)</f>
+        <f t="shared" si="0"/>
         <v>2025</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -2359,7 +6664,7 @@
         <v>4604</v>
       </c>
       <c r="B30" s="2">
-        <f>HEX2DEC(C30)</f>
+        <f t="shared" si="0"/>
         <v>2057</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -2371,7 +6676,7 @@
         <v>4755</v>
       </c>
       <c r="B31" s="2">
-        <f>HEX2DEC(C31)</f>
+        <f t="shared" si="0"/>
         <v>2094</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -2383,7 +6688,7 @@
         <v>5000</v>
       </c>
       <c r="B32" s="2">
-        <f>HEX2DEC(C32)</f>
+        <f t="shared" si="0"/>
         <v>2141</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2395,7 +6700,7 @@
         <v>5151</v>
       </c>
       <c r="B33" s="2">
-        <f>HEX2DEC(C33)</f>
+        <f t="shared" si="0"/>
         <v>2156</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -2407,7 +6712,7 @@
         <v>5302</v>
       </c>
       <c r="B34" s="2">
-        <f>HEX2DEC(C34)</f>
+        <f t="shared" si="0"/>
         <v>2167</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -2419,7 +6724,7 @@
         <v>5453</v>
       </c>
       <c r="B35" s="2">
-        <f>HEX2DEC(C35)</f>
+        <f t="shared" si="0"/>
         <v>2177</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -2431,7 +6736,7 @@
         <v>5604</v>
       </c>
       <c r="B36" s="2">
-        <f>HEX2DEC(C36)</f>
+        <f t="shared" si="0"/>
         <v>2184</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -2443,7 +6748,7 @@
         <v>5755</v>
       </c>
       <c r="B37" s="2">
-        <f>HEX2DEC(C37)</f>
+        <f t="shared" si="0"/>
         <v>2188</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2458,15 +6763,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8678911-C336-4E3E-BF0B-85DD25A3ACA6}">
-  <dimension ref="A2:D14"/>
+  <dimension ref="A2:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -2479,416 +6784,643 @@
       <c r="D2" t="s">
         <v>40</v>
       </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>42</v>
+      <c r="B3" s="2">
+        <v>-26.06</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-21.12</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-16.190000000000001</v>
+      </c>
+      <c r="E3" s="2">
+        <f>A3</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>486</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>46</v>
+      <c r="B4" s="2">
+        <v>491.7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>481.83</v>
+      </c>
+      <c r="D4" s="2">
+        <v>486.76900000000001</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" ref="E4:E14" si="0">A4</f>
+        <v>486</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1000</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>48</v>
+      <c r="B5" s="2">
+        <v>1014.39</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1024.25</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1014.39</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1486</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>51</v>
+      <c r="B6" s="2">
+        <v>1517.35</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1507.49</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1512.42</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>1486</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2000</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>54</v>
+      <c r="B7" s="2">
+        <v>1990.72</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1985.79</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1980.86</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>2000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2486</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>57</v>
+      <c r="B8" s="2">
+        <v>2508.48</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2518.34</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2498.62</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>2486</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3000</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>58</v>
+      <c r="B9" s="2">
+        <v>2996.65</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3006.51</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2996.65</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3486</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>61</v>
+      <c r="B10" s="2">
+        <v>3509.47</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3504.54</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3504.54</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>3486</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4000</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>64</v>
+      <c r="B11" s="2">
+        <v>4032.16</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3997.64</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4027.23</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>4000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4486</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>67</v>
+      <c r="B12" s="2">
+        <v>4564.71</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4554.84</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4530.1899999999996</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>4486</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5000</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>70</v>
+      <c r="B13" s="2">
+        <v>5062.74</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5028.22</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5052.88</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>5000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5486</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="B14" s="2">
+        <v>5279.7</v>
+      </c>
+      <c r="C14" s="2">
+        <v>5284.63</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5289.56</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>5486</v>
+      </c>
+      <c r="G14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED471317-6A77-4DBA-B1D9-1FC19328BFDC}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W28" sqref="W28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="14" width="11.85546875" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="G1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="H1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="I1" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="J1" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="K1" t="s">
-        <v>84</v>
+        <v>51</v>
+      </c>
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T1" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1000</v>
       </c>
-      <c r="B2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K2" t="s">
-        <v>92</v>
+      <c r="B2">
+        <v>984.8</v>
+      </c>
+      <c r="C2">
+        <v>989.73</v>
+      </c>
+      <c r="D2">
+        <v>994.66</v>
+      </c>
+      <c r="E2">
+        <v>994.66</v>
+      </c>
+      <c r="F2">
+        <v>999.59</v>
+      </c>
+      <c r="G2">
+        <v>994.66</v>
+      </c>
+      <c r="H2">
+        <v>999.59</v>
+      </c>
+      <c r="I2">
+        <v>989.73</v>
+      </c>
+      <c r="J2">
+        <v>984.8</v>
+      </c>
+      <c r="K2">
+        <v>970.01</v>
+      </c>
+      <c r="M2">
+        <f>MAX(B2:K2)</f>
+        <v>999.59</v>
+      </c>
+      <c r="N2">
+        <f>AVERAGE(B2:K2)</f>
+        <v>990.22299999999996</v>
+      </c>
+      <c r="O2">
+        <f>MIN(B2:K2)</f>
+        <v>970.01</v>
+      </c>
+      <c r="Q2">
+        <f>(M2-N2)</f>
+        <v>9.3670000000000755</v>
+      </c>
+      <c r="R2">
+        <f>(N2-O2)</f>
+        <v>20.212999999999965</v>
+      </c>
+      <c r="S2">
+        <f>Q2+R2</f>
+        <v>29.580000000000041</v>
+      </c>
+      <c r="T2">
+        <f>(S2/A2)*100</f>
+        <v>2.9580000000000042</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2000</v>
       </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K3" t="s">
-        <v>85</v>
+      <c r="B3">
+        <v>1985.79</v>
+      </c>
+      <c r="C3">
+        <v>1980.86</v>
+      </c>
+      <c r="D3">
+        <v>1980.86</v>
+      </c>
+      <c r="E3">
+        <v>1975.93</v>
+      </c>
+      <c r="F3">
+        <v>1975.93</v>
+      </c>
+      <c r="G3">
+        <v>1971</v>
+      </c>
+      <c r="H3">
+        <v>1966.07</v>
+      </c>
+      <c r="I3">
+        <v>1971</v>
+      </c>
+      <c r="J3">
+        <v>1975.93</v>
+      </c>
+      <c r="K3">
+        <v>1975.93</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M6" si="0">MAX(B3:K3)</f>
+        <v>1985.79</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N6" si="1">AVERAGE(B3:K3)</f>
+        <v>1975.9299999999998</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O6" si="2">MIN(B3:K3)</f>
+        <v>1966.07</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q6" si="3">(M3-N3)</f>
+        <v>9.8600000000001273</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R6" si="4">(N3-O3)</f>
+        <v>9.8599999999999</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S6" si="5">Q3+R3</f>
+        <v>19.720000000000027</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T6" si="6">(S3/A3)*100</f>
+        <v>0.98600000000000132</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3000</v>
       </c>
-      <c r="B4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J4" t="s">
-        <v>96</v>
-      </c>
-      <c r="K4" t="s">
-        <v>95</v>
+      <c r="B4">
+        <v>3105.13</v>
+      </c>
+      <c r="C4">
+        <v>3100.2</v>
+      </c>
+      <c r="D4">
+        <v>3095.27</v>
+      </c>
+      <c r="E4">
+        <v>3105.13</v>
+      </c>
+      <c r="F4">
+        <v>3105.13</v>
+      </c>
+      <c r="G4">
+        <v>3095.27</v>
+      </c>
+      <c r="H4">
+        <v>3105.13</v>
+      </c>
+      <c r="I4">
+        <v>3105.13</v>
+      </c>
+      <c r="J4">
+        <v>3114.99</v>
+      </c>
+      <c r="K4">
+        <v>3105.13</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>3114.99</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="1"/>
+        <v>3103.6510000000007</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="2"/>
+        <v>3095.27</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="3"/>
+        <v>11.338999999999032</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="4"/>
+        <v>8.3810000000007676</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="5"/>
+        <v>19.7199999999998</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="6"/>
+        <v>0.65733333333332666</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4000</v>
       </c>
-      <c r="B5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H5" t="s">
-        <v>101</v>
-      </c>
-      <c r="I5" t="s">
-        <v>102</v>
-      </c>
-      <c r="J5" t="s">
-        <v>103</v>
-      </c>
-      <c r="K5" t="s">
-        <v>103</v>
+      <c r="B5">
+        <v>4189.95</v>
+      </c>
+      <c r="C5">
+        <v>4194.88</v>
+      </c>
+      <c r="D5">
+        <v>4140.6400000000003</v>
+      </c>
+      <c r="E5">
+        <v>4185.0200000000004</v>
+      </c>
+      <c r="F5">
+        <v>4189.95</v>
+      </c>
+      <c r="G5">
+        <v>4185.0200000000004</v>
+      </c>
+      <c r="H5">
+        <v>4244.1899999999996</v>
+      </c>
+      <c r="I5">
+        <v>4170.2299999999996</v>
+      </c>
+      <c r="J5">
+        <v>4175.16</v>
+      </c>
+      <c r="K5">
+        <v>4175.16</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>4244.1899999999996</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="1"/>
+        <v>4185.0200000000013</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="2"/>
+        <v>4140.6400000000003</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="3"/>
+        <v>59.169999999998254</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="4"/>
+        <v>44.380000000001019</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="5"/>
+        <v>103.54999999999927</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="6"/>
+        <v>2.5887499999999819</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5000</v>
       </c>
-      <c r="B6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G6" t="s">
-        <v>107</v>
-      </c>
-      <c r="H6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J6" t="s">
-        <v>109</v>
-      </c>
-      <c r="K6" t="s">
-        <v>110</v>
+      <c r="B6">
+        <v>5181.08</v>
+      </c>
+      <c r="C6">
+        <v>5205.74</v>
+      </c>
+      <c r="D6">
+        <v>5200.8100000000004</v>
+      </c>
+      <c r="E6">
+        <v>5200.8100000000004</v>
+      </c>
+      <c r="F6">
+        <v>5181.08</v>
+      </c>
+      <c r="G6">
+        <v>5171.22</v>
+      </c>
+      <c r="H6">
+        <v>5186.01</v>
+      </c>
+      <c r="I6">
+        <v>5200.8100000000004</v>
+      </c>
+      <c r="J6">
+        <v>5195.87</v>
+      </c>
+      <c r="K6">
+        <v>5190.9399999999996</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>5205.74</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>5191.4370000000008</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="2"/>
+        <v>5171.22</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="3"/>
+        <v>14.302999999998974</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="4"/>
+        <v>20.217000000000553</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="5"/>
+        <v>34.519999999999527</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="6"/>
+        <v>0.69039999999999047</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E825DFF-AAE1-488E-AA51-4A5BEB3E0EDF}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -2901,92 +7433,282 @@
       <c r="D1" t="s">
         <v>40</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>113</v>
+      <c r="B2" s="1">
+        <v>-60.57</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-80.3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-55.64</v>
+      </c>
+      <c r="E2" s="2">
+        <f>AVERAGE(B2:D2)</f>
+        <v>-65.50333333333333</v>
+      </c>
+      <c r="G2" s="2">
+        <f>Liniaritet!B3</f>
+        <v>-26.06</v>
+      </c>
+      <c r="H2" s="2">
+        <f>Liniaritet!C3</f>
+        <v>-21.12</v>
+      </c>
+      <c r="I2" s="2">
+        <f>Liniaritet!D3</f>
+        <v>-16.190000000000001</v>
+      </c>
+      <c r="J2" s="2">
+        <f>AVERAGE(G2:I2)</f>
+        <v>-21.123333333333335</v>
+      </c>
+      <c r="L2" s="2">
+        <f>E2-J2</f>
+        <v>-44.379999999999995</v>
+      </c>
+      <c r="M2">
+        <f>L2/J2*100</f>
+        <v>210.09941612750512</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1000</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>88</v>
+      <c r="B3" s="1">
+        <v>989.73</v>
+      </c>
+      <c r="C3" s="1">
+        <v>960.15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>984.8</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E7" si="0">AVERAGE(B3:D3)</f>
+        <v>978.2266666666668</v>
+      </c>
+      <c r="G3" s="2">
+        <f>Liniaritet!B5</f>
+        <v>1014.39</v>
+      </c>
+      <c r="H3" s="2">
+        <f>Liniaritet!C5</f>
+        <v>1024.25</v>
+      </c>
+      <c r="I3" s="2">
+        <f>Liniaritet!D5</f>
+        <v>1014.39</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J7" si="1">AVERAGE(G3:I3)</f>
+        <v>1017.6766666666666</v>
+      </c>
+      <c r="L3" s="2">
+        <f t="shared" ref="L3:L7" si="2">E3-J3</f>
+        <v>-39.449999999999818</v>
+      </c>
+      <c r="M3">
+        <f>ABS(L3/J3*100)</f>
+        <v>3.876476811560956</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2000</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>117</v>
+      <c r="B4" s="1">
+        <v>2035.1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2015.38</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2040.03</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>2030.17</v>
+      </c>
+      <c r="G4" s="2">
+        <f>Liniaritet!B7</f>
+        <v>1990.72</v>
+      </c>
+      <c r="H4" s="2">
+        <f>Liniaritet!C7</f>
+        <v>1985.79</v>
+      </c>
+      <c r="I4" s="2">
+        <f>Liniaritet!D7</f>
+        <v>1980.86</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="1"/>
+        <v>1985.79</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" si="2"/>
+        <v>44.380000000000109</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M3:M7" si="3">L4/J4*100</f>
+        <v>2.2348788139732858</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3000</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>118</v>
+      <c r="B5" s="1">
+        <v>3060.75</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3065.68</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3060.75</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>3062.3933333333334</v>
+      </c>
+      <c r="G5" s="2">
+        <f>Liniaritet!B9</f>
+        <v>2996.65</v>
+      </c>
+      <c r="H5" s="2">
+        <f>Liniaritet!C9</f>
+        <v>3006.51</v>
+      </c>
+      <c r="I5" s="2">
+        <f>Liniaritet!D9</f>
+        <v>2996.65</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="1"/>
+        <v>2999.9366666666665</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="2"/>
+        <v>62.456666666666933</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>2.0819328408044258</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4000</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>121</v>
+      <c r="B6" s="1">
+        <v>4135.71</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4115.99</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4115.99</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>4122.5633333333335</v>
+      </c>
+      <c r="G6" s="2">
+        <f>Liniaritet!B11</f>
+        <v>4032.16</v>
+      </c>
+      <c r="H6" s="2">
+        <f>Liniaritet!C11</f>
+        <v>3997.64</v>
+      </c>
+      <c r="I6" s="2">
+        <f>Liniaritet!D11</f>
+        <v>4027.23</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="1"/>
+        <v>4019.0099999999998</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="2"/>
+        <v>103.55333333333374</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>2.5765880983957179</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5000</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>123</v>
+      <c r="B7" s="1">
+        <v>5131.7700000000004</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5131.7700000000004</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5136.7</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>5133.4133333333339</v>
+      </c>
+      <c r="G7" s="2">
+        <f>Liniaritet!B13</f>
+        <v>5062.74</v>
+      </c>
+      <c r="H7" s="2">
+        <f>Liniaritet!C13</f>
+        <v>5028.22</v>
+      </c>
+      <c r="I7" s="2">
+        <f>Liniaritet!D13</f>
+        <v>5052.88</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="1"/>
+        <v>5047.9466666666667</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="2"/>
+        <v>85.466666666667152</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>1.6930976555484041</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Lab-Scale-Group65/Rå-Målinger.kinda-trash.xlsx
+++ b/Lab-Scale-Group65/Rå-Målinger.kinda-trash.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor\Documents\GitHub\GFV\Lab-Scale-Group65\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\OneDrive - Aarhus universitet\3. semester\GFV\GFV - LAB\Lab-Scale-Group65\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87788AD-70F3-45D3-97B1-E4073B4DED53}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="6_{C28A6CEC-0FD4-4BD9-AC2A-9608EF0B0942}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{A8F3F9C1-B63D-42DE-B474-39E1C2E8C240}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4581D2D8-8E95-4720-8671-B7B6BA209B26}"/>
+    <workbookView xWindow="30" yWindow="600" windowWidth="28770" windowHeight="15600" xr2:uid="{4581D2D8-8E95-4720-8671-B7B6BA209B26}"/>
   </bookViews>
   <sheets>
     <sheet name="Indledende" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
   <si>
-    <t>vægt</t>
-  </si>
-  <si>
     <t>hex</t>
-  </si>
-  <si>
-    <t>dec</t>
   </si>
   <si>
     <t>7cc</t>
@@ -230,6 +224,12 @@
   <si>
     <t>ZD i proc</t>
   </si>
+  <si>
+    <t>Belastning på vægten [g]</t>
+  </si>
+  <si>
+    <t>Analog måling</t>
+  </si>
 </sst>
 </file>
 
@@ -290,7 +290,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -322,7 +322,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="da-DK"/>
-              <a:t>titulær diagrammius</a:t>
+              <a:t>Graf over belastningen på vægten sammenlignet med målt analoge data fra strain gaugen</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -352,7 +352,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -405,8 +405,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.47487518054680239"/>
-                  <c:y val="-0.12325419928360554"/>
+                  <c:x val="0.29037021177911282"/>
+                  <c:y val="-9.0767813315370982E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -434,57 +434,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="LID4096"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:prstDash val="dash"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.48795547452236326"/>
-                  <c:y val="3.2139164247224107E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="LID4096"/>
+                  <a:endParaRPr lang="da-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -749,6 +699,68 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Belastning på vægten [g]</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -783,7 +795,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="592311200"/>
@@ -812,6 +824,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Analog måling</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -840,7 +907,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="592315136"/>
@@ -882,7 +949,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -919,13 +986,13 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="LID4096"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0" l="0" r="0" t="0" header="0" footer="0"/>
+    <c:pageSetup paperSize="9" orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -933,7 +1000,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -995,7 +1062,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1611,7 +1678,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="783260272"/>
@@ -1674,7 +1741,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="783261584"/>
@@ -1716,7 +1783,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1753,7 +1820,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="LID4096"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1767,7 +1834,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1829,7 +1896,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2061,7 +2128,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2099,7 +2166,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="783285208"/>
@@ -2186,7 +2253,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2218,7 +2285,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="684562768"/>
@@ -2288,7 +2355,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2320,7 +2387,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="680668720"/>
@@ -2338,6 +2405,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="680669704"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2378,7 +2446,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2415,7 +2483,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="LID4096"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2429,7 +2497,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2466,7 +2534,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2627,7 +2695,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="783258304"/>
@@ -2686,7 +2754,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="783258632"/>
@@ -2734,7 +2802,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="LID4096"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2748,7 +2816,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2785,7 +2853,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2946,7 +3014,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="783258304"/>
@@ -3005,7 +3073,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="783258632"/>
@@ -3053,7 +3121,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="LID4096"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5809,16 +5877,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6008,7 +6076,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6304,26 +6372,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420FC2B5-1126-42BE-85AE-0DF4ACA84898}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
+      <c r="D1" t="str">
+        <f>CONCATENATE(A1," &amp; ",B1, " \\ \hline")</f>
+        <v>Belastning på vægten [g] &amp; Analog måling \\ \hline</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6334,8 +6404,12 @@
       <c r="C2" s="1">
         <v>443</v>
       </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D37" si="1">CONCATENATE(A2," &amp; ",B2, " \\ \hline")</f>
+        <v>0 &amp; 1091 \\ \hline</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>151</v>
       </c>
@@ -6344,10 +6418,14 @@
         <v>1119</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="1"/>
+        <v>151 &amp; 1119 \\ \hline</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>302</v>
       </c>
@@ -6358,8 +6436,12 @@
       <c r="C4" s="1">
         <v>483</v>
       </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>302 &amp; 1155 \\ \hline</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>453</v>
       </c>
@@ -6368,10 +6450,14 @@
         <v>1189</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>453 &amp; 1189 \\ \hline</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>604</v>
       </c>
@@ -6380,10 +6466,14 @@
         <v>1222</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>604 &amp; 1222 \\ \hline</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>755</v>
       </c>
@@ -6392,10 +6482,14 @@
         <v>1252</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>755 &amp; 1252 \\ \hline</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1000</v>
       </c>
@@ -6404,10 +6498,14 @@
         <v>1297</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>1000 &amp; 1297 \\ \hline</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1151</v>
       </c>
@@ -6416,10 +6514,14 @@
         <v>1325</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>1151 &amp; 1325 \\ \hline</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1302</v>
       </c>
@@ -6428,10 +6530,14 @@
         <v>1356</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>1302 &amp; 1356 \\ \hline</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1453</v>
       </c>
@@ -6440,10 +6546,14 @@
         <v>1383</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>1453 &amp; 1383 \\ \hline</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1604</v>
       </c>
@@ -6452,10 +6562,14 @@
         <v>1408</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>1604 &amp; 1408 \\ \hline</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1755</v>
       </c>
@@ -6464,10 +6578,14 @@
         <v>1469</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>1755 &amp; 1469 \\ \hline</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2000</v>
       </c>
@@ -6476,10 +6594,14 @@
         <v>1510</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>2000 &amp; 1510 \\ \hline</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2151</v>
       </c>
@@ -6488,10 +6610,14 @@
         <v>1539</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>2151 &amp; 1539 \\ \hline</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2302</v>
       </c>
@@ -6500,10 +6626,14 @@
         <v>1571</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>2302 &amp; 1571 \\ \hline</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2453</v>
       </c>
@@ -6512,10 +6642,14 @@
         <v>1594</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>2453 &amp; 1594 \\ \hline</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2604</v>
       </c>
@@ -6524,10 +6658,14 @@
         <v>1630</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>2604 &amp; 1630 \\ \hline</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2755</v>
       </c>
@@ -6536,10 +6674,14 @@
         <v>1657</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>2755 &amp; 1657 \\ \hline</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3000</v>
       </c>
@@ -6548,10 +6690,14 @@
         <v>1718</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>3000 &amp; 1718 \\ \hline</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3151</v>
       </c>
@@ -6560,10 +6706,14 @@
         <v>1753</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>3151 &amp; 1753 \\ \hline</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3302</v>
       </c>
@@ -6572,10 +6722,14 @@
         <v>1777</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v>3302 &amp; 1777 \\ \hline</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3453</v>
       </c>
@@ -6584,10 +6738,14 @@
         <v>1811</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>3453 &amp; 1811 \\ \hline</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3604</v>
       </c>
@@ -6596,10 +6754,14 @@
         <v>1842</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>3604 &amp; 1842 \\ \hline</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3755</v>
       </c>
@@ -6608,10 +6770,14 @@
         <v>1873</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>3755 &amp; 1873 \\ \hline</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4000</v>
       </c>
@@ -6620,10 +6786,14 @@
         <v>1929</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v>4000 &amp; 1929 \\ \hline</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4151</v>
       </c>
@@ -6632,10 +6802,14 @@
         <v>1959</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>4151 &amp; 1959 \\ \hline</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4302</v>
       </c>
@@ -6644,10 +6818,14 @@
         <v>1996</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>4302 &amp; 1996 \\ \hline</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4453</v>
       </c>
@@ -6656,10 +6834,14 @@
         <v>2025</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>4453 &amp; 2025 \\ \hline</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4604</v>
       </c>
@@ -6668,10 +6850,14 @@
         <v>2057</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>4604 &amp; 2057 \\ \hline</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4755</v>
       </c>
@@ -6680,10 +6866,14 @@
         <v>2094</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>4755 &amp; 2094 \\ \hline</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5000</v>
       </c>
@@ -6692,10 +6882,14 @@
         <v>2141</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>5000 &amp; 2141 \\ \hline</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5151</v>
       </c>
@@ -6704,10 +6898,14 @@
         <v>2156</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v>5151 &amp; 2156 \\ \hline</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5302</v>
       </c>
@@ -6716,10 +6914,14 @@
         <v>2167</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="1"/>
+        <v>5302 &amp; 2167 \\ \hline</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5453</v>
       </c>
@@ -6728,10 +6930,14 @@
         <v>2177</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="1"/>
+        <v>5453 &amp; 2177 \\ \hline</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5604</v>
       </c>
@@ -6740,10 +6946,14 @@
         <v>2184</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="1"/>
+        <v>5604 &amp; 2184 \\ \hline</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5755</v>
       </c>
@@ -6752,12 +6962,17 @@
         <v>2188</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="1"/>
+        <v>5755 &amp; 2188 \\ \hline</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="150" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6773,19 +6988,19 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -7029,58 +7244,58 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>47</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>48</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>49</v>
       </c>
-      <c r="J1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>51</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" t="s">
         <v>53</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>54</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>56</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>57</v>
-      </c>
-      <c r="S1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -7422,37 +7637,37 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
-      </c>
       <c r="E1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" t="s">
         <v>62</v>
-      </c>
-      <c r="F1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -7577,7 +7792,7 @@
         <v>44.380000000000109</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M3:M7" si="3">L4/J4*100</f>
+        <f t="shared" ref="M4:M7" si="3">L4/J4*100</f>
         <v>2.2348788139732858</v>
       </c>
     </row>

--- a/Lab-Scale-Group65/Rå-Målinger.kinda-trash.xlsx
+++ b/Lab-Scale-Group65/Rå-Målinger.kinda-trash.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor\Documents\GitHub\GFV\Lab-Scale-Group65\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87788AD-70F3-45D3-97B1-E4073B4DED53}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD0BA27-43C2-42A7-83CA-23668C6117C3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4581D2D8-8E95-4720-8671-B7B6BA209B26}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4581D2D8-8E95-4720-8671-B7B6BA209B26}"/>
   </bookViews>
   <sheets>
     <sheet name="Indledende" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
   <si>
     <t>vægt</t>
   </si>
@@ -230,6 +230,21 @@
   <si>
     <t>ZD i proc</t>
   </si>
+  <si>
+    <t>GNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forskel </t>
+  </si>
+  <si>
+    <t>Forventet forskel</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>forskel ift den forventet</t>
+  </si>
 </sst>
 </file>
 
@@ -264,12 +279,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -965,8 +979,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="da-DK"/>
-              <a:t>Liniaritet</a:t>
+              <a:t>Måling</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="da-DK" baseline="0"/>
+              <a:t> af linearitet </a:t>
+            </a:r>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1002,546 +1021,110 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Liniaritet!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Måling 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
-              <c:f>Liniaritet!$A$3:$A$14</c:f>
+              <c:f>Liniaritet!$A$4:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>486</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1486</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2486</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3000</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3486</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4000</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4486</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5486</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Liniaritet!$B$3:$B$14</c:f>
+              <c:f>Liniaritet!$I$4:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-26.06</c:v>
+                  <c:v>101.57793333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>491.7</c:v>
+                  <c:v>106.18206666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1014.39</c:v>
+                  <c:v>98.948666666666696</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1517.35</c:v>
+                  <c:v>94.673999999999978</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1990.72</c:v>
+                  <c:v>104.53800000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2508.48</c:v>
+                  <c:v>98.291333333333299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2996.65</c:v>
+                  <c:v>101.24933333333328</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3509.47</c:v>
+                  <c:v>102.56533333333337</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4032.16</c:v>
+                  <c:v>106.18066666666664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4564.71</c:v>
+                  <c:v>99.606666666666754</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5062.74</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5279.7</c:v>
+                  <c:v>47.33666666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-46FE-43B1-A0EA-91083BE0E8AF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Liniaritet!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Måling 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Liniaritet!$A$3:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>486</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1486</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2486</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3486</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4486</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5486</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Liniaritet!$C$3:$C$14</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>-21.12</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>481.83</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1024.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1507.49</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1985.79</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2518.34</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>3006.51</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3504.54</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3997.64</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4554.84</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5028.22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5284.63</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-46FE-43B1-A0EA-91083BE0E8AF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Liniaritet!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Måling 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Liniaritet!$A$3:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>486</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1486</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2486</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3486</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4486</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5486</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Liniaritet!$D$3:$D$14</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>-16.190000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>486.76900000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1014.39</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1512.42</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1980.86</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2498.62</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2996.65</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3504.54</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4027.23</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4530.1899999999996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5052.88</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5289.56</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-46FE-43B1-A0EA-91083BE0E8AF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Liniaritet!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Liniær</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Liniaritet!$E$3:$E$14</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>486</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1486</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2486</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3486</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4486</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5486</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Liniaritet!$E$3:$E$14</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>486</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1486</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2486</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3486</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4486</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5486</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-46FE-43B1-A0EA-91083BE0E8AF}"/>
+              <c16:uniqueId val="{00000000-A846-4728-BAE6-47FC4F96A95C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1553,30 +1136,78 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="783261584"/>
-        <c:axId val="783260272"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="783261584"/>
+        <c:gapWidth val="500"/>
+        <c:overlap val="-100"/>
+        <c:axId val="671001368"/>
+        <c:axId val="670999072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="671001368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Belastning</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> [g]</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1586,8 +1217,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1614,15 +1245,17 @@
             <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="783260272"/>
+        <c:crossAx val="670999072"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="783260272"/>
+        <c:axId val="670999072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1640,20 +1273,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Forhold</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> mellem forventet ændring i belastning og målt ændring i belastning [%] </a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1677,9 +1364,9 @@
             <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="783261584"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossAx val="671001368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1689,37 +1376,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2338,6 +1994,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="680669704"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3781,7 +3438,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3808,8 +3465,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3910,7 +3567,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3942,10 +3599,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3985,23 +3642,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4106,8 +3762,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4239,20 +3895,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4266,17 +3921,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5850,23 +5494,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>138111</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Diagram 4">
+        <xdr:cNvPr id="2" name="Diagram 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{834B1D2F-B6A5-46D0-AD08-6C5981338242}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D19F08A4-B353-4100-96F4-C2B6C47F380F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6306,7 +5950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420FC2B5-1126-42BE-85AE-0DF4ACA84898}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
@@ -6763,15 +6407,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8678911-C336-4E3E-BF0B-85DD25A3ACA6}">
-  <dimension ref="A2:G14"/>
+  <dimension ref="A2:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -6787,8 +6435,20 @@
       <c r="E2" t="s">
         <v>52</v>
       </c>
+      <c r="F2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -6805,10 +6465,24 @@
         <f>A3</f>
         <v>0</v>
       </c>
+      <c r="F3" s="2">
+        <f>AVERAGE(B3:D3)</f>
+        <v>-21.123333333333335</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <f>G3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="B4" s="2">
         <v>491.7</v>
@@ -6821,10 +6495,26 @@
       </c>
       <c r="E4" s="2">
         <f t="shared" ref="E4:E14" si="0">A4</f>
-        <v>486</v>
+        <v>500</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:F14" si="1">AVERAGE(B4:D4)</f>
+        <v>486.76633333333331</v>
+      </c>
+      <c r="G4" s="2">
+        <f>F4-F3</f>
+        <v>507.88966666666664</v>
+      </c>
+      <c r="H4" s="2">
+        <f>E4-E3</f>
+        <v>500</v>
+      </c>
+      <c r="I4" s="2">
+        <f>G4/H4*100</f>
+        <v>101.57793333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1000</v>
       </c>
@@ -6841,10 +6531,26 @@
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
+      <c r="F5" s="2">
+        <f t="shared" si="1"/>
+        <v>1017.6766666666666</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" ref="G5:G14" si="2">F5-F4</f>
+        <v>530.91033333333326</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" ref="H5:H14" si="3">E5-E4</f>
+        <v>500</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" ref="I5:I14" si="4">G5/H5*100</f>
+        <v>106.18206666666666</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1486</v>
+        <v>1500</v>
       </c>
       <c r="B6" s="2">
         <v>1517.35</v>
@@ -6857,10 +6563,26 @@
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>1486</v>
+        <v>1500</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="1"/>
+        <v>1512.42</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="2"/>
+        <v>494.74333333333345</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="4"/>
+        <v>98.948666666666696</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2000</v>
       </c>
@@ -6877,10 +6599,26 @@
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
+      <c r="F7" s="2">
+        <f t="shared" si="1"/>
+        <v>1985.79</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="2"/>
+        <v>473.36999999999989</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="4"/>
+        <v>94.673999999999978</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2486</v>
+        <v>2500</v>
       </c>
       <c r="B8" s="2">
         <v>2508.48</v>
@@ -6893,10 +6631,26 @@
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>2486</v>
+        <v>2500</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="1"/>
+        <v>2508.48</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="2"/>
+        <v>522.69000000000005</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="4"/>
+        <v>104.53800000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3000</v>
       </c>
@@ -6913,10 +6667,26 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
+      <c r="F9" s="2">
+        <f t="shared" si="1"/>
+        <v>2999.9366666666665</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="2"/>
+        <v>491.45666666666648</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="4"/>
+        <v>98.291333333333299</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>3486</v>
+        <v>3500</v>
       </c>
       <c r="B10" s="2">
         <v>3509.47</v>
@@ -6929,10 +6699,26 @@
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>3486</v>
+        <v>3500</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="1"/>
+        <v>3506.1833333333329</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="2"/>
+        <v>506.24666666666644</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="4"/>
+        <v>101.24933333333328</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4000</v>
       </c>
@@ -6949,10 +6735,26 @@
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
+      <c r="F11" s="2">
+        <f t="shared" si="1"/>
+        <v>4019.0099999999998</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="2"/>
+        <v>512.82666666666682</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="4"/>
+        <v>102.56533333333337</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>4486</v>
+        <v>4500</v>
       </c>
       <c r="B12" s="2">
         <v>4564.71</v>
@@ -6965,10 +6767,26 @@
       </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>4486</v>
+        <v>4500</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="1"/>
+        <v>4549.913333333333</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="2"/>
+        <v>530.90333333333319</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="4"/>
+        <v>106.18066666666664</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5000</v>
       </c>
@@ -6985,10 +6803,26 @@
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>5047.9466666666667</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="2"/>
+        <v>498.03333333333376</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="4"/>
+        <v>99.606666666666754</v>
+      </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>5486</v>
+        <v>5500</v>
       </c>
       <c r="B14" s="2">
         <v>5279.7</v>
@@ -7001,9 +6835,24 @@
       </c>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>5486</v>
-      </c>
-      <c r="G14" s="4"/>
+        <v>5500</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="1"/>
+        <v>5284.63</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="2"/>
+        <v>236.68333333333339</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="4"/>
+        <v>47.33666666666668</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7577,7 +7426,7 @@
         <v>44.380000000000109</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M3:M7" si="3">L4/J4*100</f>
+        <f t="shared" ref="M4:M7" si="3">L4/J4*100</f>
         <v>2.2348788139732858</v>
       </c>
     </row>

--- a/Lab-Scale-Group65/Rå-Målinger.kinda-trash.xlsx
+++ b/Lab-Scale-Group65/Rå-Målinger.kinda-trash.xlsx
@@ -229,7 +229,7 @@
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -256,6 +256,11 @@
       <sz val="14"/>
       <color rgb="FF595959"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -319,7 +324,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -329,10 +334,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -740,11 +741,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="15273582"/>
-        <c:axId val="61777203"/>
+        <c:axId val="11694941"/>
+        <c:axId val="93830141"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="15273582"/>
+        <c:axId val="11694941"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000"/>
@@ -811,12 +812,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61777203"/>
+        <c:crossAx val="93830141"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61777203"/>
+        <c:axId val="93830141"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -890,7 +891,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15273582"/>
+        <c:crossAx val="11694941"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1530,11 +1531,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="39393107"/>
-        <c:axId val="95155993"/>
+        <c:axId val="41416916"/>
+        <c:axId val="95386236"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="39393107"/>
+        <c:axId val="41416916"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1576,12 +1577,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95155993"/>
+        <c:crossAx val="95386236"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95155993"/>
+        <c:axId val="95386236"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1624,7 +1625,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39393107"/>
+        <c:crossAx val="41416916"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1702,7 +1703,7 @@
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:rPr>
-              <a:t>Præcision</a:t>
+              <a:t>Graf for præcisionen af vægten</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1804,8 +1805,8 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="0"/>
-        <c:axId val="5209870"/>
-        <c:axId val="86949896"/>
+        <c:axId val="23868701"/>
+        <c:axId val="40676369"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1905,11 +1906,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="83202707"/>
-        <c:axId val="46858995"/>
+        <c:axId val="25582903"/>
+        <c:axId val="75094358"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="5209870"/>
+        <c:axId val="23868701"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1975,14 +1976,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86949896"/>
+        <c:crossAx val="40676369"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86949896"/>
+        <c:axId val="40676369"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2055,11 +2056,11 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5209870"/>
+        <c:crossAx val="23868701"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="83202707"/>
+        <c:axId val="25582903"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2091,14 +2092,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46858995"/>
+        <c:crossAx val="75094358"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46858995"/>
+        <c:axId val="75094358"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -2162,7 +2163,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83202707"/>
+        <c:crossAx val="25582903"/>
         <c:crosses val="max"/>
       </c:valAx>
       <c:spPr>
@@ -2347,11 +2348,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="96416190"/>
-        <c:axId val="67969646"/>
+        <c:axId val="60194013"/>
+        <c:axId val="9359571"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96416190"/>
+        <c:axId val="60194013"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2383,14 +2384,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67969646"/>
+        <c:crossAx val="9359571"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67969646"/>
+        <c:axId val="9359571"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2429,7 +2430,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96416190"/>
+        <c:crossAx val="60194013"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2590,11 +2591,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="25049436"/>
-        <c:axId val="27901781"/>
+        <c:axId val="2221742"/>
+        <c:axId val="51168195"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="25049436"/>
+        <c:axId val="2221742"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2626,14 +2627,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27901781"/>
+        <c:crossAx val="51168195"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="27901781"/>
+        <c:axId val="51168195"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2672,7 +2673,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25049436"/>
+        <c:crossAx val="2221742"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2710,9 +2711,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>580680</xdr:colOff>
+      <xdr:colOff>580320</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:rowOff>141840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2721,7 +2722,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="7248240"/>
-        <a:ext cx="6651000" cy="3371400"/>
+        <a:ext cx="6650640" cy="3371040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2745,9 +2746,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>333000</xdr:colOff>
+      <xdr:colOff>332640</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
+      <xdr:rowOff>171000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2756,7 +2757,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4591080" y="328680"/>
-        <a:ext cx="13194720" cy="6129000"/>
+        <a:ext cx="13194360" cy="6128640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2780,9 +2781,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>85320</xdr:colOff>
+      <xdr:colOff>84960</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>104400</xdr:rowOff>
+      <xdr:rowOff>104040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2791,7 +2792,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3563640" y="1652400"/>
-        <a:ext cx="13002840" cy="4738320"/>
+        <a:ext cx="13001760" cy="4737960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2815,9 +2816,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>85320</xdr:rowOff>
+      <xdr:rowOff>84960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2826,7 +2827,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="252360" y="1833480"/>
-        <a:ext cx="7484400" cy="3776040"/>
+        <a:ext cx="7483320" cy="3775680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2845,9 +2846,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>190440</xdr:colOff>
+      <xdr:colOff>190080</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:rowOff>142200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2855,8 +2856,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8137440" y="1876320"/>
-        <a:ext cx="8451720" cy="3790440"/>
+        <a:off x="8136720" y="1876320"/>
+        <a:ext cx="8451360" cy="3790080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3636,7 +3637,7 @@
       <c r="B9" s="1" t="n">
         <v>2996.65</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="0" t="n">
         <v>3006.51</v>
       </c>
       <c r="D9" s="1" t="n">
@@ -3736,7 +3737,7 @@
         <f aca="false">A14</f>
         <v>5486</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3758,7 +3759,7 @@
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="R36" activeCellId="0" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4189,7 +4190,7 @@
       <c r="D1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="0" t="s">
         <v>60</v>
       </c>
       <c r="F1" s="0" t="s">

--- a/Lab-Scale-Group65/Rå-Målinger.kinda-trash.xlsx
+++ b/Lab-Scale-Group65/Rå-Målinger.kinda-trash.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor\Documents\GitHub\GFV\Lab-Scale-Group65\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD0BA27-43C2-42A7-83CA-23668C6117C3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39F6B38-B08E-4796-ABD2-59E72DC4DD2A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4581D2D8-8E95-4720-8671-B7B6BA209B26}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
   <si>
     <t>vægt</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>forskel ift den forventet</t>
+  </si>
+  <si>
+    <t>forskel ift gennemsnit</t>
   </si>
 </sst>
 </file>
@@ -959,6 +962,600 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Liniaritet!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GNS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="LID4096"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.6224048556430446"/>
+                  <c:y val="-0.18406423155438903"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="LID4096"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Liniaritet!$A$3:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Liniaritet!$F$3:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-21.123333333333335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>486.76633333333331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1017.6766666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1512.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1985.79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2508.48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2999.9366666666665</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3506.1833333333329</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4019.0099999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4549.913333333333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5047.9466666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2FD2-42E6-8A14-994A7B95FFF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="423334296"/>
+        <c:axId val="423334952"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="423334296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Forventet</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> belastning [g]</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="423334952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="423334952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Målt belastning</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> [g]</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="423334296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -1028,6 +1625,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Stigning ift forventet</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1137,10 +1737,100 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:overlap val="-100"/>
         <c:axId val="671001368"/>
         <c:axId val="670999072"/>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Liniaritet!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gennemsnit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Liniaritet!$K$4:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>101.38140000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101.38140000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101.38140000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101.38140000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101.38140000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>101.38140000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>101.38140000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>101.38140000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>101.38140000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>101.38140000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>101.38140000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CD3B-4A50-880F-C58B2530DFEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="671001368"/>
+        <c:axId val="670999072"/>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="671001368"/>
         <c:scaling>
@@ -1376,6 +2066,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1420,7 +2141,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="da-DK"/>
@@ -1914,7 +2635,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="da-DK" baseline="0"/>
-                  <a:t> vægt</a:t>
+                  <a:t> kendt belastning</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2083,7 +2804,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="da-DK"/>
@@ -2402,7 +3123,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="da-DK"/>
@@ -2921,6 +3642,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3438,7 +4199,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3465,8 +4226,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3567,7 +4328,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3599,10 +4360,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3642,22 +4403,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3762,8 +4524,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3895,19 +4657,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3921,6 +4684,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4947,6 +5721,509 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5494,14 +6771,50 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagram 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1BB3505-8CE2-42BF-9CE0-D8F2DBFDD804}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>438149</xdr:colOff>
+      <xdr:colOff>219074</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -5522,7 +6835,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6407,19 +7720,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8678911-C336-4E3E-BF0B-85DD25A3ACA6}">
-  <dimension ref="A2:I14"/>
+  <dimension ref="A2:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -6447,8 +7761,14 @@
       <c r="I2" t="s">
         <v>69</v>
       </c>
+      <c r="K2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -6480,7 +7800,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>500</v>
       </c>
@@ -6513,8 +7833,16 @@
         <f>G4/H4*100</f>
         <v>101.57793333333333</v>
       </c>
+      <c r="K4" s="2">
+        <f>AVERAGE(I4:I13)</f>
+        <v>101.38140000000001</v>
+      </c>
+      <c r="L4" s="2">
+        <f>I4-K4</f>
+        <v>0.19653333333332057</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1000</v>
       </c>
@@ -6547,8 +7875,17 @@
         <f t="shared" ref="I5:I14" si="4">G5/H5*100</f>
         <v>106.18206666666666</v>
       </c>
+      <c r="K5" s="2">
+        <f>K4</f>
+        <v>101.38140000000001</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" ref="L5:L14" si="5">I5-K5</f>
+        <v>4.8006666666666433</v>
+      </c>
+      <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1500</v>
       </c>
@@ -6581,8 +7918,16 @@
         <f t="shared" si="4"/>
         <v>98.948666666666696</v>
       </c>
+      <c r="K6" s="2">
+        <f t="shared" ref="K6:K14" si="6">K5</f>
+        <v>101.38140000000001</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="5"/>
+        <v>-2.4327333333333172</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2000</v>
       </c>
@@ -6615,8 +7960,16 @@
         <f t="shared" si="4"/>
         <v>94.673999999999978</v>
       </c>
+      <c r="K7" s="2">
+        <f t="shared" si="6"/>
+        <v>101.38140000000001</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="5"/>
+        <v>-6.7074000000000353</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2500</v>
       </c>
@@ -6649,8 +8002,16 @@
         <f t="shared" si="4"/>
         <v>104.53800000000003</v>
       </c>
+      <c r="K8" s="2">
+        <f t="shared" si="6"/>
+        <v>101.38140000000001</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="5"/>
+        <v>3.1566000000000116</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3000</v>
       </c>
@@ -6683,8 +8044,16 @@
         <f t="shared" si="4"/>
         <v>98.291333333333299</v>
       </c>
+      <c r="K9" s="2">
+        <f t="shared" si="6"/>
+        <v>101.38140000000001</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="5"/>
+        <v>-3.0900666666667149</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3500</v>
       </c>
@@ -6717,8 +8086,16 @@
         <f t="shared" si="4"/>
         <v>101.24933333333328</v>
       </c>
+      <c r="K10" s="2">
+        <f t="shared" si="6"/>
+        <v>101.38140000000001</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="5"/>
+        <v>-0.13206666666673073</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4000</v>
       </c>
@@ -6751,8 +8128,16 @@
         <f t="shared" si="4"/>
         <v>102.56533333333337</v>
       </c>
+      <c r="K11" s="2">
+        <f t="shared" si="6"/>
+        <v>101.38140000000001</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="5"/>
+        <v>1.183933333333357</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4500</v>
       </c>
@@ -6785,8 +8170,16 @@
         <f t="shared" si="4"/>
         <v>106.18066666666664</v>
       </c>
+      <c r="K12" s="2">
+        <f t="shared" si="6"/>
+        <v>101.38140000000001</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="5"/>
+        <v>4.7992666666666253</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5000</v>
       </c>
@@ -6819,8 +8212,16 @@
         <f t="shared" si="4"/>
         <v>99.606666666666754</v>
       </c>
+      <c r="K13" s="2">
+        <f t="shared" si="6"/>
+        <v>101.38140000000001</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="5"/>
+        <v>-1.7747333333332591</v>
+      </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5500</v>
       </c>
@@ -6852,6 +8253,14 @@
       <c r="I14" s="2">
         <f t="shared" si="4"/>
         <v>47.33666666666668</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="6"/>
+        <v>101.38140000000001</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="5"/>
+        <v>-54.044733333333333</v>
       </c>
     </row>
   </sheetData>
@@ -6866,7 +8275,7 @@
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W28" sqref="W28"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7258,7 +8667,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Lab-Scale-Group65/Rå-Målinger.kinda-trash.xlsx
+++ b/Lab-Scale-Group65/Rå-Målinger.kinda-trash.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\OneDrive - Aarhus universitet\3. semester\GFV\GFV - LAB\Lab-Scale-Group65\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="6_{C28A6CEC-0FD4-4BD9-AC2A-9608EF0B0942}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{A8F3F9C1-B63D-42DE-B474-39E1C2E8C240}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="6_{C28A6CEC-0FD4-4BD9-AC2A-9608EF0B0942}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{438F9A52-8AE5-49DF-B9B8-9837030741DF}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="600" windowWidth="28770" windowHeight="15600" xr2:uid="{4581D2D8-8E95-4720-8671-B7B6BA209B26}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4581D2D8-8E95-4720-8671-B7B6BA209B26}"/>
   </bookViews>
   <sheets>
     <sheet name="Indledende" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
   <si>
     <t>hex</t>
   </si>
@@ -229,6 +229,24 @@
   </si>
   <si>
     <t>Analog måling</t>
+  </si>
+  <si>
+    <t>Udregnet Sensitivity Drift</t>
+  </si>
+  <si>
+    <t>0-1000</t>
+  </si>
+  <si>
+    <t>1000-2000</t>
+  </si>
+  <si>
+    <t>3000-4000</t>
+  </si>
+  <si>
+    <t>2000-3000</t>
+  </si>
+  <si>
+    <t>4000-5000</t>
   </si>
 </sst>
 </file>
@@ -2569,6 +2587,35 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="1"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4472C4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-A54F-4CA1-8366-815ECB7045AC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A54F-4CA1-8366-815ECB7045AC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:numRef>
               <c:f>'Cirka 30 min efter '!$A$2:$A$7</c:f>
@@ -2661,6 +2708,69 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Forventet</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> målt b</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>elastning [g]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2726,6 +2836,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Forskel i målt belastning [g]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3046,6 +3211,437 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="783258632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cirka 30 min efter '!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Udregnet Sensitivity Drift</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4472C4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cirka 30 min efter '!$P$3:$P$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0-1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000-2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000-3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000-4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000-5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cirka 30 min efter '!$O$3:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.9300000000000637</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.829999999999814</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.076666666666824</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.096666666666806</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-18.086666666666588</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E86E-4418-A3DD-6D1142D02EC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="783258632"/>
+        <c:axId val="783258304"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="783258632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Belastnings intavller</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>[g]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="783258304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="783258304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Forskel i målt belastning [g]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3332,6 +3928,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5371,6 +6007,509 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6001,15 +7140,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>252411</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>119061</xdr:rowOff>
+      <xdr:colOff>33336</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>61911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6067,6 +7206,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>519113</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A936C09E-A488-4752-9E35-2E3D31CA0D72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6374,7 +7551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420FC2B5-1126-42BE-85AE-0DF4ACA84898}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -7621,10 +8798,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E825DFF-AAE1-488E-AA51-4A5BEB3E0EDF}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7635,7 +8812,7 @@
     <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -7669,8 +8846,11 @@
       <c r="M1" t="s">
         <v>62</v>
       </c>
+      <c r="O1" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -7711,8 +8891,12 @@
         <f>L2/J2*100</f>
         <v>210.09941612750512</v>
       </c>
+      <c r="O2" s="2">
+        <f>E2-J2</f>
+        <v>-44.379999999999995</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -7753,8 +8937,15 @@
         <f>ABS(L3/J3*100)</f>
         <v>3.876476811560956</v>
       </c>
+      <c r="O3" s="2">
+        <f>(E3-E2)-(J3-J2)</f>
+        <v>4.9300000000000637</v>
+      </c>
+      <c r="P3" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2000</v>
       </c>
@@ -7795,8 +8986,15 @@
         <f t="shared" ref="M4:M7" si="3">L4/J4*100</f>
         <v>2.2348788139732858</v>
       </c>
+      <c r="O4" s="2">
+        <f t="shared" ref="O4:O7" si="4">(E4-E3)-(J4-J3)</f>
+        <v>83.829999999999814</v>
+      </c>
+      <c r="P4" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3000</v>
       </c>
@@ -7837,8 +9035,15 @@
         <f t="shared" si="3"/>
         <v>2.0819328408044258</v>
       </c>
+      <c r="O5" s="2">
+        <f t="shared" si="4"/>
+        <v>18.076666666666824</v>
+      </c>
+      <c r="P5" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4000</v>
       </c>
@@ -7879,8 +9084,15 @@
         <f t="shared" si="3"/>
         <v>2.5765880983957179</v>
       </c>
+      <c r="O6" s="2">
+        <f t="shared" si="4"/>
+        <v>41.096666666666806</v>
+      </c>
+      <c r="P6" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5000</v>
       </c>
@@ -7921,9 +9133,17 @@
         <f t="shared" si="3"/>
         <v>1.6930976555484041</v>
       </c>
+      <c r="O7" s="2">
+        <f t="shared" si="4"/>
+        <v>-18.086666666666588</v>
+      </c>
+      <c r="P7" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Lab-Scale-Group65/Rå-Målinger.kinda-trash.xlsx
+++ b/Lab-Scale-Group65/Rå-Målinger.kinda-trash.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor\Documents\GitHub\GFV\Lab-Scale-Group65\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39F6B38-B08E-4796-ABD2-59E72DC4DD2A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616F83DE-7D3B-4E33-A862-8E1124E12FD3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4581D2D8-8E95-4720-8671-B7B6BA209B26}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4581D2D8-8E95-4720-8671-B7B6BA209B26}"/>
   </bookViews>
   <sheets>
     <sheet name="Indledende" sheetId="1" r:id="rId1"/>
@@ -7722,7 +7722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8678911-C336-4E3E-BF0B-85DD25A3ACA6}">
   <dimension ref="A2:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
@@ -8274,8 +8274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED471317-6A77-4DBA-B1D9-1FC19328BFDC}">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
